--- a/docs/assets/disciplinas/LOM3070.xlsx
+++ b/docs/assets/disciplinas/LOM3070.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="66">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -64,7 +64,7 @@
     <t>Semestre ideal:</t>
   </si>
   <si>
-    <t>EM-9</t>
+    <t>EM-10</t>
   </si>
   <si>
     <t>Objetivos:</t>
@@ -141,18 +141,10 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">LOB1006 -  Cálculo IV  (Requisito)
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">LOB1008 -  Ciência, Tecnologia e Sociedade  (Requisito)
 </t>
   </si>
   <si>
-    <t xml:space="preserve">LOB1011 -  Eletricidade Aplicada  (Requisito)
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">LOB1012 -  Estatística  (Requisito)
 </t>
   </si>
@@ -165,10 +157,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">LOB1021 -  Física IV  (Requisito)
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">LOB1036 -  Geometria Analítica  (Requisito)
 </t>
   </si>
@@ -185,22 +173,18 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">LOB1040 -  Laboratório de Eletricidade  (Requisito)
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">LOB1041 -  Física Experimental II  (Requisito)
 </t>
   </si>
   <si>
-    <t xml:space="preserve">LOB1042 -  Física Experimental IV  (Requisito)
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">LOB1045 -  Leitura e Produção de Textos Acadêmicos  (Requisito)
 </t>
   </si>
   <si>
+    <t xml:space="preserve">LOB1046 -  Engenharia do Meio Ambiente  (Requisito)
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">LOB1052 -  Cálculo III  (Requisito)
 </t>
   </si>
@@ -209,10 +193,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">LOB1056 -  Introdução aos Métodos Numéricos e Computacionais  (Requisito)
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">LOM3013 -  Ciência dos Materiais  (Requisito)
 </t>
   </si>
@@ -225,35 +205,39 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">LOM3038 -  Recursos Naturais  (Requisito)
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">LOM3056 -  Fundamentos de Química Orgânica  (Requisito)
 </t>
   </si>
   <si>
-    <t xml:space="preserve">LOM3081 -  Introdução à Mecânica dos Sólidos  (Requisito)
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">LOM3099 -  Estática  (Requisito)
 </t>
   </si>
   <si>
+    <t xml:space="preserve">LOM3104 -  Projeto Integrado em Engenharia de Materiais I  (Requisito)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOM3105 -  Computação e análise de dados em Engenharia  (Requisito)
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">LOM3204 -  Desenho Técnico e Projeto Assistido por Computador  (Requisito)
 </t>
   </si>
   <si>
-    <t xml:space="preserve">LOQ4031 -  Química Geral I  (Requisito)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOQ4073 -  Química Geral II  (Requisito)
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">LOQ4095 -  Química Geral Experimental  (Requisito)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOQ4098 -  Fundamentos de Química para Engenharia II (Requisito)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOQ4100 -  Fundamentos de Química para Engenharia I (Requisito)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOQ4246 -  Engenharia da Sustentabilidade  (Requisito)
 </t>
   </si>
 </sst>
@@ -610,7 +594,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1053,38 +1037,6 @@
         <v>65</v>
       </c>
     </row>
-    <row r="52" spans="2:3" ht="30" customHeight="1">
-      <c r="B52" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3" ht="30" customHeight="1">
-      <c r="B53" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3" ht="30" customHeight="1">
-      <c r="B54" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3" ht="30" customHeight="1">
-      <c r="B55" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/assets/disciplinas/LOM3070.xlsx
+++ b/docs/assets/disciplinas/LOM3070.xlsx
@@ -46,19 +46,19 @@
     <t>Créditos-trabalho</t>
   </si>
   <si>
-    <t>12</t>
+    <t>6</t>
   </si>
   <si>
     <t>Carga horária:</t>
   </si>
   <si>
-    <t>360 h   (    Estágio: 360 h         )</t>
+    <t>180 h   (    Estágio: 180 h         )</t>
   </si>
   <si>
     <t>Ativação:</t>
   </si>
   <si>
-    <t>01/01/2012</t>
+    <t>01/01/2022</t>
   </si>
   <si>
     <t>Semestre ideal:</t>

--- a/docs/assets/disciplinas/LOM3070.xlsx
+++ b/docs/assets/disciplinas/LOM3070.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="62">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Fornecer oportunidade de aplicação dos conhecimentos de Engenharia de Materiais em empresa ou instituição de pesquisa sob a supervisão de docente do Departamento de Engenharia de Materiais da EEL. Complementação da formação geral curricular. Integração de conhecimentos técnicos, econômicos e de gestão. Adaptação psicológica e social do estudante à sua futura atividade profissional.</t>
+    <t>3577649 - Carlos Angelo Nunes</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,55 +79,43 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>3577649 - Carlos Angelo Nunes</t>
+    <t>Programa resumido:</t>
+  </si>
+  <si>
+    <t>Short syllabus:</t>
+  </si>
+  <si>
+    <t>Programa:</t>
+  </si>
+  <si>
+    <t>Syllabus:</t>
+  </si>
+  <si>
+    <t>Avaliação:</t>
+  </si>
+  <si>
+    <t>Método:</t>
   </si>
   <si>
     <t>519033 - Carlos Yujiro Shigue</t>
   </si>
   <si>
-    <t>Programa resumido:</t>
-  </si>
-  <si>
-    <t>Obtenção de estágio. Elaboração do plano de trabalho de estágio. Realização do estágio. Elaboração de relatórios parciais e/ou final.</t>
-  </si>
-  <si>
-    <t>Short syllabus:</t>
-  </si>
-  <si>
-    <t>Programa:</t>
-  </si>
-  <si>
-    <t>Participação do aluno em processo seletivo de empresas, instituições de pesquisa ou no setor acadêmico. O estágio realizado sob a supervisão de docente designado pelo Coordenador de Estágio do curso de Engenharia de Materiais. O conteúdo será estabelecido individualmente no Plano de Trabalho entre o supervisor responsável pelo Estágio e o docente supervisor, desde que relacionado com as áreas afins da Engenharia de Materiais. Apresentação de relatórios parciais e/ou final sobre as atividades desenvolvidas no estágio.</t>
-  </si>
-  <si>
-    <t>Syllabus:</t>
-  </si>
-  <si>
-    <t>Avaliação:</t>
-  </si>
-  <si>
-    <t>Método:</t>
+    <t>Critério:</t>
   </si>
   <si>
     <t>Supervisão das atividades desenvolvidas pelo aluno durante o estágio.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>MF = Nota baseada em relatório final e no desempenho no estágio, a ser atribuída pelo docente supervisor do estágio.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Não será oferecida recuperação.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>A ser definida com o supervisor responsável pelo estágio e pelo docente orientador em função das atividades desenvolvidas no estágio.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -594,7 +582,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -719,56 +707,62 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="B14" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="60" customHeight="1">
+      <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="120" customHeight="1">
+      <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="60" customHeight="1">
-      <c r="A16" s="1" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="120" customHeight="1">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:3" ht="60" customHeight="1">
+      <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -783,7 +777,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
+    <row r="21" spans="1:3" ht="120" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
@@ -794,247 +788,225 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="60" customHeight="1">
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="2" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="120" customHeight="1">
-      <c r="A23" s="1" t="s">
+    <row r="24" spans="1:3" ht="30" customHeight="1">
+      <c r="B24" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1" t="s">
-        <v>38</v>
+      <c r="C24" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="30" customHeight="1">
       <c r="B25" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="30" customHeight="1">
       <c r="B26" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="30" customHeight="1">
       <c r="B27" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="30" customHeight="1">
       <c r="B28" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="30" customHeight="1">
       <c r="B29" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="30" customHeight="1">
       <c r="B30" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="30" customHeight="1">
       <c r="B31" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="30" customHeight="1">
       <c r="B32" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="30" customHeight="1">
       <c r="B33" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="2:3" ht="30" customHeight="1">
       <c r="B34" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="30" customHeight="1">
       <c r="B35" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="2:3" ht="30" customHeight="1">
       <c r="B36" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="2:3" ht="30" customHeight="1">
       <c r="B37" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="2:3" ht="30" customHeight="1">
       <c r="B38" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="30" customHeight="1">
       <c r="B39" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="2:3" ht="30" customHeight="1">
       <c r="B40" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="2:3" ht="30" customHeight="1">
       <c r="B41" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="2:3" ht="30" customHeight="1">
       <c r="B42" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="2:3" ht="30" customHeight="1">
       <c r="B43" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="2:3" ht="30" customHeight="1">
       <c r="B44" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="2:3" ht="30" customHeight="1">
       <c r="B45" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="2:3" ht="30" customHeight="1">
       <c r="B46" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="2:3" ht="30" customHeight="1">
       <c r="B47" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="2:3" ht="30" customHeight="1">
       <c r="B48" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="2:3" ht="30" customHeight="1">
       <c r="B49" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" ht="30" customHeight="1">
-      <c r="B50" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" ht="30" customHeight="1">
-      <c r="B51" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOM3070.xlsx
+++ b/docs/assets/disciplinas/LOM3070.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="66">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,24 +70,36 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Fornecer oportunidade de aplicação dos conhecimentos de Engenharia de Materiais em empresa ou instituição de pesquisa sob a supervisão de docente do Departamento de Engenharia de Materiais da EEL. Complementação da formação geral curricular. Integração de conhecimentos técnicos, econômicos e de gestão. Adaptação psicológica e social do estudante à sua futura atividade profissional.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>3577649 - Carlos Angelo Nunes</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
+    <t>519033 - Carlos Yujiro Shigue</t>
   </si>
   <si>
     <t>Programa resumido:</t>
   </si>
   <si>
+    <t>Obtenção de estágio. Elaboração do plano de trabalho de estágio. Realização do estágio. Elaboração de relatórios parciais e/ou final.</t>
+  </si>
+  <si>
     <t>Short syllabus:</t>
   </si>
   <si>
     <t>Programa:</t>
   </si>
   <si>
+    <t>Participação do aluno em processo seletivo de empresas, instituições de pesquisa ou no setor acadêmico. O estágio realizado sob a supervisão de docente designado pelo Coordenador de Estágio do curso de Engenharia de Materiais. O conteúdo será estabelecido individualmente no Plano de Trabalho entre o supervisor responsável pelo Estágio e o docente supervisor, desde que relacionado com as áreas afins da Engenharia de Materiais. Apresentação de relatórios parciais e/ou final sobre as atividades desenvolvidas no estágio.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -97,25 +109,25 @@
     <t>Método:</t>
   </si>
   <si>
-    <t>519033 - Carlos Yujiro Shigue</t>
+    <t>Supervisão das atividades desenvolvidas pelo aluno durante o estágio.</t>
   </si>
   <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Supervisão das atividades desenvolvidas pelo aluno durante o estágio.</t>
+    <t>MF = Nota baseada em relatório final e no desempenho no estágio, a ser atribuída pelo docente supervisor do estágio.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>MF = Nota baseada em relatório final e no desempenho no estágio, a ser atribuída pelo docente supervisor do estágio.</t>
+    <t>Não será oferecida recuperação.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>Não será oferecida recuperação.</t>
+    <t>A ser definida com o supervisor responsável pelo estágio e pelo docente orientador em função das atividades desenvolvidas no estágio.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -582,13 +594,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -707,62 +719,56 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="60" customHeight="1">
-      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
+      <c r="C14" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="120" customHeight="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="60" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+        <v>26</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="120" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="60" customHeight="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -777,7 +783,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
@@ -788,225 +794,247 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" ht="60" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="120" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="B23" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1">
-      <c r="B24" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="30" customHeight="1">
       <c r="B25" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="30" customHeight="1">
       <c r="B26" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="30" customHeight="1">
       <c r="B27" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="30" customHeight="1">
       <c r="B28" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="30" customHeight="1">
       <c r="B29" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="30" customHeight="1">
       <c r="B30" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="30" customHeight="1">
       <c r="B31" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="30" customHeight="1">
       <c r="B32" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="30" customHeight="1">
       <c r="B33" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="2:3" ht="30" customHeight="1">
       <c r="B34" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="30" customHeight="1">
       <c r="B35" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="2:3" ht="30" customHeight="1">
       <c r="B36" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="2:3" ht="30" customHeight="1">
       <c r="B37" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="2:3" ht="30" customHeight="1">
       <c r="B38" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="30" customHeight="1">
       <c r="B39" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="2:3" ht="30" customHeight="1">
       <c r="B40" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="2:3" ht="30" customHeight="1">
       <c r="B41" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="2:3" ht="30" customHeight="1">
       <c r="B42" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="2:3" ht="30" customHeight="1">
       <c r="B43" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="2:3" ht="30" customHeight="1">
       <c r="B44" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="2:3" ht="30" customHeight="1">
       <c r="B45" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="2:3" ht="30" customHeight="1">
       <c r="B46" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="2:3" ht="30" customHeight="1">
       <c r="B47" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="2:3" ht="30" customHeight="1">
       <c r="B48" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="2:3" ht="30" customHeight="1">
       <c r="B49" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" ht="30" customHeight="1">
+      <c r="B50" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" ht="30" customHeight="1">
+      <c r="B51" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
